--- a/Tables/Supp Table 3 - MCLGoEnrichment.xlsx
+++ b/Tables/Supp Table 3 - MCLGoEnrichment.xlsx
@@ -7789,8 +7789,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">
-Enrichment of genes co-annotated for GO terms in each MCL cluster. Significance of enrichment was calculated using the hypergeometric test with a Bonferroni corrected p-value of ≤ 0.05.
+      <t xml:space="preserve">. Enrichment of genes co-annotated for GO terms in each MCL cluster. Significance of enrichment was calculated using the hypergeometric test with a Bonferroni corrected p-value of ≤ 0.05. Supports Table 2.
 </t>
     </r>
   </si>
@@ -7811,6 +7810,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -7885,14 +7885,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -8197,36 +8197,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1604"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="15" style="4" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" style="4" customWidth="1"/>
     <col min="4" max="4" width="19.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.140625" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" style="7" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="30" style="6" customWidth="1"/>
     <col min="9" max="9" width="88.5703125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:9" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>2582</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -8247,7 +8247,7 @@
       <c r="F2" s="3" t="s">
         <v>2579</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="8" t="s">
         <v>2</v>
       </c>
       <c r="H2" s="5" t="s">
